--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/BVTTest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF06CB07-D0D1-A243-B8C6-C5CA6293F09D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8FB50552-C728-8D43-9749-2B171A2308D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="直播首页" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>结果</t>
-  </si>
-  <si>
-    <t>搜索框+我要直播</t>
   </si>
   <si>
     <t>亲密度榜</t>
@@ -199,24 +196,45 @@
   <si>
     <t>ExitLiveRoomFriend</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+  </si>
+  <si>
+    <t>LiveIndex_09</t>
+  </si>
+  <si>
+    <t>搜索框</t>
+  </si>
+  <si>
+    <t>我要直播按钮</t>
+  </si>
+  <si>
+    <t>LiveIndex_10</t>
+  </si>
+  <si>
+    <t>caseCheckCreateLiveRoomBtn</t>
+  </si>
+  <si>
+    <t>caseCheckSearchBar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -244,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,9 +272,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,7 +293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,176 +589,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="37" customHeight="1">
-      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="37" customHeight="1"/>
-    <row r="15" spans="1:6" ht="37" customHeight="1"/>
-    <row r="16" spans="1:6" ht="37" customHeight="1"/>
-    <row r="17" ht="37" customHeight="1"/>
-    <row r="18" ht="37" customHeight="1"/>
-    <row r="19" ht="37" customHeight="1"/>
-    <row r="20" ht="37" customHeight="1"/>
-    <row r="21" ht="37" customHeight="1"/>
-    <row r="22" ht="37" customHeight="1"/>
-    <row r="23" ht="37" customHeight="1"/>
-    <row r="24" ht="37" customHeight="1"/>
+    <row r="16" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -748,23 +803,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" customWidth="1"/>
     <col min="4" max="4" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46" customHeight="1">
+    <row r="1" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -779,107 +834,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137" customHeight="1">
+    <row r="2" spans="1:6" ht="137" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="51">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="51">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="18" spans="4:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" ht="51">
-      <c r="D18" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +951,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -911,7 +966,7 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -926,7 +981,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/BVTTest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/BVTTest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8FB50552-C728-8D43-9749-2B171A2308D5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918B7D21-7379-364C-8D78-F8CE5991E410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>LiveIndex_02</t>
-  </si>
-  <si>
-    <t>LiveIndex_03</t>
   </si>
   <si>
     <t>LiveIndex_04</t>
@@ -213,28 +210,66 @@
     <t>LiveIndex_10</t>
   </si>
   <si>
-    <t>caseCheckCreateLiveRoomBtn</t>
-  </si>
-  <si>
-    <t>caseCheckSearchBar</t>
+    <t>CaseCheckSearchBar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseCheckCreateLiveRoomBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热门分类tab存在并且有5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiveIndex_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要直播按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲密度榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播间列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseCheckLiveRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseCheckLiveTab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseCheckLiveRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +312,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -293,7 +328,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -592,10 +627,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
@@ -604,15 +639,15 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -624,7 +659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -632,16 +667,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -655,126 +690,135 @@
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="37" customHeight="1">
       <c r="D13" t="s">
         <v>2</v>
       </c>
@@ -782,17 +826,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="37" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="37" customHeight="1"/>
+    <row r="17" ht="37" customHeight="1"/>
+    <row r="18" ht="37" customHeight="1"/>
+    <row r="19" ht="37" customHeight="1"/>
+    <row r="20" ht="37" customHeight="1"/>
+    <row r="21" ht="37" customHeight="1"/>
+    <row r="22" ht="37" customHeight="1"/>
+    <row r="23" ht="37" customHeight="1"/>
+    <row r="24" ht="37" customHeight="1"/>
+    <row r="25" ht="37" customHeight="1"/>
+    <row r="26" ht="37" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -804,19 +848,19 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" customWidth="1"/>
     <col min="4" max="4" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="46" customHeight="1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -834,107 +878,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="137" customHeight="1">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="51">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" ht="51">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="51">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:6" ht="34">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="51">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="18" spans="4:4" ht="51">
+      <c r="D18" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +995,7 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -966,7 +1010,7 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -981,7 +1025,7 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/BVTTest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918B7D21-7379-364C-8D78-F8CE5991E410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB7C48-B0B8-9E49-B070-CC7FC0862A88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="直播首页" sheetId="1" r:id="rId1"/>
-    <sheet name="直播间" sheetId="2" r:id="rId2"/>
-    <sheet name="发现页" sheetId="3" r:id="rId3"/>
-    <sheet name="微课" sheetId="4" r:id="rId4"/>
-    <sheet name="广播" sheetId="5" r:id="rId5"/>
+    <sheet name="创建直播间" sheetId="6" r:id="rId2"/>
+    <sheet name="直播间" sheetId="2" r:id="rId3"/>
+    <sheet name="发现页" sheetId="3" r:id="rId4"/>
+    <sheet name="微课" sheetId="4" r:id="rId5"/>
+    <sheet name="广播" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,18 +111,6 @@
   </si>
   <si>
     <t>关闭直播间，回到直播首页</t>
-  </si>
-  <si>
-    <t>ExitLiveRoom_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExitLiveRoom_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExitLiveRoom_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.从直播首页进入直播间
@@ -179,22 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnterLiveRoomPK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExitLiveRoomPK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnterLiveRoomFriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExitLiveRoomFriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类名</t>
   </si>
   <si>
@@ -251,6 +224,36 @@
   </si>
   <si>
     <t>CaseCheckLiveRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiveRoom_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiveRoom_02</t>
+  </si>
+  <si>
+    <t>LiveRoom_03</t>
+  </si>
+  <si>
+    <t>LiveRoom_04</t>
+  </si>
+  <si>
+    <t>LiveRoom_05</t>
+  </si>
+  <si>
+    <t>LiveRoom_06</t>
+  </si>
+  <si>
+    <t>LiveRoom_07</t>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首页点击创建直播间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -647,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -667,13 +670,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
@@ -684,13 +687,13 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
@@ -698,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
@@ -718,13 +721,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
@@ -735,13 +738,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
@@ -755,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
@@ -769,7 +772,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
@@ -791,7 +794,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
@@ -805,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -844,21 +847,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="55.1640625" customWidth="1"/>
+    <col min="1" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46" customHeight="1">
+    <row r="1" spans="1:7" ht="46" customHeight="1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -866,119 +884,133 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137" customHeight="1">
+    <row r="2" spans="1:7" ht="46" customHeight="1">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="137" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="34">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="51">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="51">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="34">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" ht="51">
-      <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="51">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" ht="51">
+      <c r="E19" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC2795-92DB-3841-9BE9-310F5F7385AC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1002,7 +1034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AAD40-6EDC-654D-80BB-61051791E7FB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1017,7 +1049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3792EE-4C98-8346-A8E0-C1B12CF55420}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/BVTTest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB7C48-B0B8-9E49-B070-CC7FC0862A88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B0474E-80F7-7C4F-AF35-8A2AABAEA4FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="4320" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
-    <sheet name="直播首页" sheetId="1" r:id="rId1"/>
-    <sheet name="创建直播间" sheetId="6" r:id="rId2"/>
-    <sheet name="直播间" sheetId="2" r:id="rId3"/>
-    <sheet name="发现页" sheetId="3" r:id="rId4"/>
-    <sheet name="微课" sheetId="4" r:id="rId5"/>
-    <sheet name="广播" sheetId="5" r:id="rId6"/>
+    <sheet name="用例样式" sheetId="7" r:id="rId1"/>
+    <sheet name="直播首页" sheetId="1" r:id="rId2"/>
+    <sheet name="创建直播间" sheetId="6" r:id="rId3"/>
+    <sheet name="主播端直播间" sheetId="8" r:id="rId4"/>
+    <sheet name="用户直播间" sheetId="2" r:id="rId5"/>
+    <sheet name="发现页" sheetId="3" r:id="rId6"/>
+    <sheet name="广播" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,18 +41,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击榜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据榜单入口判断当前页面的光标选中的一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LiveIndex</t>
-  </si>
-  <si>
-    <t>方法</t>
   </si>
   <si>
     <t>结果</t>
@@ -100,74 +90,6 @@
     <t>LiveIndex_08</t>
   </si>
   <si>
-    <t>LiveRoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">弹出关闭弹窗
-</t>
-  </si>
-  <si>
-    <t>仍在直播间内</t>
-  </si>
-  <si>
-    <t>关闭直播间，回到直播首页</t>
-  </si>
-  <si>
-    <t>1.从直播首页进入直播间
-2.点击关闭按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.从直播首页进入直播间
-2.点击关闭按钮
-3.点击取消</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常开启PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常取消PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.直播首页新建直播间
-2.点击PK按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.直播首页新建直播间
-2.点击PK按钮
-3.取消PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.直播首页新建直播间
-2.点击更多-交友模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常开启交友模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.直播首页新建直播间
-2.点击更多-交友模式
-3.关闭交友模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常关闭交友模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.分享弹窗
-3.连麦按钮
-4.添加音乐按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类名</t>
   </si>
   <si>
@@ -224,36 +146,6 @@
   </si>
   <si>
     <t>CaseCheckLiveRecord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiveRoom_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiveRoom_02</t>
-  </si>
-  <si>
-    <t>LiveRoom_03</t>
-  </si>
-  <si>
-    <t>LiveRoom_04</t>
-  </si>
-  <si>
-    <t>LiveRoom_05</t>
-  </si>
-  <si>
-    <t>LiveRoom_06</t>
-  </si>
-  <si>
-    <t>LiveRoom_07</t>
-  </si>
-  <si>
-    <t>类名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.首页点击创建直播间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -277,16 +169,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -294,13 +201,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,7 +312,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,11 +673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
-  <dimension ref="A1:F26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1911B14D-C1D9-C74C-8DC7-BD4357544C70}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -643,203 +690,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="37" customHeight="1">
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="37" customHeight="1"/>
-    <row r="17" ht="37" customHeight="1"/>
-    <row r="18" ht="37" customHeight="1"/>
-    <row r="19" ht="37" customHeight="1"/>
-    <row r="20" ht="37" customHeight="1"/>
-    <row r="21" ht="37" customHeight="1"/>
-    <row r="22" ht="37" customHeight="1"/>
-    <row r="23" ht="37" customHeight="1"/>
-    <row r="24" ht="37" customHeight="1"/>
-    <row r="25" ht="37" customHeight="1"/>
-    <row r="26" ht="37" customHeight="1"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -847,171 +804,342 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="57" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="55.1640625" customWidth="1"/>
+    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="46" customHeight="1">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="46" customHeight="1">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="137" customHeight="1">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="51">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="51">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="34">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="34">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="51">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" ht="51">
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="57" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="57" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1020,36 +1148,399 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC2795-92DB-3841-9BE9-310F5F7385AC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="57" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="57" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4AAD40-6EDC-654D-80BB-61051791E7FB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="57" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="57" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC2795-92DB-3841-9BE9-310F5F7385AC}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="57" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="57" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3792EE-4C98-8346-A8E0-C1B12CF55420}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/BVTTest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B0474E-80F7-7C4F-AF35-8A2AABAEA4FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE32EF-0D35-FE4B-9935-96061C863BB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,18 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我要直播按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲密度榜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直播间列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,6 +134,35 @@
   </si>
   <si>
     <t>CaseCheckLiveRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击首页直播tab
+2.跳转搜索页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击首页直播tab
+2.跳转创建直播页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首页搜索框存在
+2.搜索页搜索按钮存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首页我要直播按钮
+2.搜索页创建按钮存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击首页直播tab
+2.跳转榜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.跳转后榜单名称与之前选中的一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,6 +824,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="57" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -841,174 +1071,92 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="12"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="16"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="57" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1016,12 +1164,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1147,8 +1295,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1278,143 +1426,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC2795-92DB-3841-9BE9-310F5F7385AC}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE32EF-0D35-FE4B-9935-96061C863BB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D49255-EA4B-2E42-9512-1974DD012CE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,15 +47,6 @@
     <t>结果</t>
   </si>
   <si>
-    <t>亲密度榜</t>
-  </si>
-  <si>
-    <t>热门分类tab</t>
-  </si>
-  <si>
-    <t>直播间列表</t>
-  </si>
-  <si>
     <t>点击首页直播tab</t>
   </si>
   <si>
@@ -77,10 +68,6 @@
     <t>TestSuite</t>
   </si>
   <si>
-    <t>1.点击分类
-2.点击直播</t>
-  </si>
-  <si>
     <t>LiveIndex_06</t>
   </si>
   <si>
@@ -94,12 +81,6 @@
   </si>
   <si>
     <t>LiveIndex_09</t>
-  </si>
-  <si>
-    <t>搜索框</t>
-  </si>
-  <si>
-    <t>我要直播按钮</t>
   </si>
   <si>
     <t>LiveIndex_10</t>
@@ -163,6 +144,25 @@
   </si>
   <si>
     <t>1.跳转后榜单名称与之前选中的一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnchorLiveRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnchorLiveRoom_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.创建直播间
+2.点击上麦按钮
+3.打开上麦开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击上麦按钮，此时开关默认关闭，显示连麦未开启
+2.打开连麦开关，显示连麦接通，等待用户接入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,13 +708,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>1</v>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -839,13 +839,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>1</v>
@@ -862,16 +862,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F2" s="12"/>
     </row>
@@ -880,16 +880,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -898,16 +898,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -916,16 +916,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -934,16 +934,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -952,15 +952,11 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
@@ -968,15 +964,11 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
@@ -984,15 +976,11 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>4</v>
-      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
@@ -1000,15 +988,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
@@ -1016,15 +1000,11 @@
         <v>2</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="16"/>
     </row>
   </sheetData>
@@ -1052,13 +1032,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>1</v>
@@ -1168,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1177,19 +1157,19 @@
     <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="39.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>1</v>
@@ -1201,16 +1181,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
+    <row r="2" spans="1:6" ht="74" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="8"/>
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -1218,7 +1208,9 @@
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
@@ -1314,13 +1306,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>1</v>
@@ -1445,13 +1437,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>1</v>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D49255-EA4B-2E42-9512-1974DD012CE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282026BC-2CF9-F14D-92DD-BD1EF1224E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,12 +157,25 @@
   <si>
     <t>1.创建直播间
 2.点击上麦按钮
-3.打开上麦开关</t>
+3.打开上麦开关
+4.关闭连麦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.点击上麦按钮，此时开关默认关闭，显示连麦未开启
-2.打开连麦开关，显示连麦接通，等待用户接入</t>
+2.打开连麦开关，显示连麦接通，等待用户接入
+3.关闭连麦，连麦面板收起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.创建直播间
+2.点击更多按钮-交友模式
+3.确认打开交友模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击交友模式，弹出确认弹窗
+2.确认后，页面出现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,7 +1162,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1181,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="74" customHeight="1">
+    <row r="2" spans="1:6" ht="95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -1203,8 +1216,12 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282026BC-2CF9-F14D-92DD-BD1EF1224E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E99FE34-4AD5-1747-A90C-2B133514EBF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,42 +50,12 @@
     <t>点击首页直播tab</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>LiveIndex_01</t>
-  </si>
-  <si>
-    <t>LiveIndex_02</t>
-  </si>
-  <si>
-    <t>LiveIndex_04</t>
-  </si>
-  <si>
-    <t>LiveIndex_05</t>
-  </si>
-  <si>
     <t>TestSuite</t>
   </si>
   <si>
-    <t>LiveIndex_06</t>
-  </si>
-  <si>
-    <t>LiveIndex_07</t>
-  </si>
-  <si>
-    <t>LiveIndex_08</t>
-  </si>
-  <si>
     <t>类名</t>
   </si>
   <si>
-    <t>LiveIndex_09</t>
-  </si>
-  <si>
-    <t>LiveIndex_10</t>
-  </si>
-  <si>
     <t>CaseCheckSearchBar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +65,6 @@
   </si>
   <si>
     <t>热门分类tab存在并且有5个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiveIndex_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,10 +114,6 @@
   </si>
   <si>
     <t>AnchorLiveRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnchorLiveRoom_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,14 +130,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">1.创建直播间
+2.点击更多按钮-交友模式
+3.确认打开交友模式
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.关闭交友模式，出现确认弹窗
+2.确认关闭，交友区域消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击交友模式，弹出确认弹窗
+2.确认打开，页面出现交友区域，8个交友位置，此时点击pk按钮无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击交友座位
+2.选择锁定位置
+3.再次点击交友座位
+4.选择解锁位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击座位后，弹出锁定位置文案
+2.锁定后再次点击，弹出解锁位置文案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击关闭交友模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页搜索框存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页我要直播按钮存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页榜单点击位置名称与跳转后选中tab一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页tab存在并且有5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页直播间列表展示滑动正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连麦开关正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启交友模式功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定交友位置功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭交友模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静音模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击静音模式后，页面上面出现静音按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseMute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.创建直播间
-2.点击更多按钮-交友模式
-3.确认打开交友模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击交友模式，弹出确认弹窗
-2.确认后，页面出现</t>
+2.点击更多按钮-静音模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.创建直播间
+2.点击更多按钮-话题
+3.输入话题内容“随便聊聊”，确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击确定按钮后，主播间提示“新话题：随便聊聊”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseTopic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.创建直播间
+2.点击更多按钮-发言
+3.输入内容“随便说说”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.发送后，主播间展示发言内容“随便说说”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.创建直播间
+2.点击更多按钮-发红包
+3.跳转发红包页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.确认页面title为发红包页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseRedPacket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseSpeak</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,11 +326,20 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -241,89 +353,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -332,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,23 +372,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,25 +390,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -707,125 +725,126 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -838,187 +857,168 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,125 +1031,126 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1159,146 +1160,218 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="95" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="87" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="87" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="57" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1314,120 +1387,121 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1440,125 +1514,126 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="27.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1568,14 +1643,131 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3792EE-4C98-8346-A8E0-C1B12CF55420}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="57" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="57" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="57" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="57" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E99FE34-4AD5-1747-A90C-2B133514EBF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538CE90-01A3-C244-9E1B-0A483A6DBC30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>热门分类tab存在并且有5个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播间列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -142,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CaseCall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.点击交友模式，弹出确认弹窗
 2.确认打开，页面出现交友区域，8个交友位置，此时点击pk按钮无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CaseFriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.点击关闭交友模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +204,6 @@
   </si>
   <si>
     <t>1.点击静音模式后，页面上面出现静音按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseMute</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,20 +213,6 @@
   <si>
     <t>1.创建直播间
 2.点击更多按钮-静音模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.创建直播间
-2.点击更多按钮-话题
-3.输入话题内容“随便聊聊”，确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.点击确定按钮后，主播间提示“新话题：随便聊聊”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseTopic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,11 +244,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CaseRedPacket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseSpeak</t>
+    <t>Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedPacket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.创建直播间
+2.点击更多按钮-话题
+3.输入话题内容“大家好”，确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击确定按钮后，主播间提示“新话题：大家好”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播间列表存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播动态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -312,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +372,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,6 +413,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,7 +744,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -739,22 +758,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -856,14 +875,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
@@ -871,22 +890,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -894,17 +913,17 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -916,13 +935,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -931,16 +950,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -949,10 +968,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>4</v>
@@ -967,23 +986,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
@@ -1031,7 +1052,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1045,22 +1066,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1162,14 +1183,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" customWidth="1"/>
@@ -1177,162 +1198,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="95" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="87" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="87" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>54</v>
+      <c r="C9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -1382,7 +1403,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1396,22 +1417,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1514,7 +1535,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1528,22 +1549,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1660,22 +1681,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C538CE90-01A3-C244-9E1B-0A483A6DBC30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB29479-88A0-6945-B4D2-600156BB0897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,26 +244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RedPacket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,7 +262,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直播动态</t>
+    <t>UserLiveRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右切换直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜钻页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiveIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseSpeak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseTopic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseMute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击首页直播tab
+2.未登录情况点击直播动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击首页直播tab
+2.已登录情况点击直播动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播首页显示"直播动态"，点击后显示推荐的主播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.如果有关注的并且正在直播的主播，直播首页显示"已关注xx人"，点击后显示关注的主播并且与直播首页显示的正在直播数量一致
+2.如果有关注的但无正在直播的主播，直播首页显示"直播动态"，点击后显示关注的主播并且无正在直播的主播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录情况下直播动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录情况下直播动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseLiveDynamicBeforeLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseLiveDynamicAfterLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,6 +473,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,7 +929,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -885,7 +938,7 @@
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
-    <col min="5" max="5" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="48.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -983,7 +1036,7 @@
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
@@ -995,26 +1048,42 @@
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:6" ht="48" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
+    <row r="8" spans="1:6" ht="105" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
@@ -1042,6 +1111,9 @@
       <c r="F11" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1183,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1222,7 +1294,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>34</v>
@@ -1240,7 +1312,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>35</v>
@@ -1290,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>38</v>
@@ -1308,16 +1380,16 @@
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -1326,7 +1398,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -1344,7 +1416,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>42</v>
@@ -1403,7 +1475,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1437,31 +1509,45 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="6"/>
+      <c r="A3" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="6"/>
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8"/>
@@ -1469,7 +1555,9 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="8"/>
@@ -1477,7 +1565,9 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
@@ -1485,7 +1575,9 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB29479-88A0-6945-B4D2-600156BB0897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA5DA3-2C91-8341-A6B3-60CA79109655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
     <sheet name="直播首页" sheetId="1" r:id="rId2"/>
     <sheet name="创建直播间" sheetId="6" r:id="rId3"/>
     <sheet name="主播端直播间" sheetId="8" r:id="rId4"/>
-    <sheet name="用户直播间" sheetId="2" r:id="rId5"/>
+    <sheet name="用户端直播间" sheetId="2" r:id="rId5"/>
     <sheet name="发现页" sheetId="3" r:id="rId6"/>
     <sheet name="广播" sheetId="5" r:id="rId7"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,40 @@
   </si>
   <si>
     <t>CaseLiveDynamicAfterLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入直播间
+2.左滑切换直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10分钟之内退出直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10分钟之后退出直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入直播间
+2.等待1分钟后退出直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.退出弹窗无"关注并退出"
+2.点击退出正常返回首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入直播间
+2.等待10分钟退出
+3.点击"关注并退出"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.退出弹窗出现"关注并退出"
+2.退出后重进直播间确认已关注成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,13 +506,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1053,13 +1090,13 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="48" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1071,11 +1108,11 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="105" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1311,7 +1348,7 @@
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1329,7 +1366,7 @@
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="17"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
@@ -1345,7 +1382,7 @@
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
@@ -1472,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1516,8 +1553,12 @@
       <c r="C2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
@@ -1578,18 +1619,32 @@
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
@@ -1616,7 +1671,18 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
+    <row r="13" spans="1:6" ht="57" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA5DA3-2C91-8341-A6B3-60CA79109655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05263C49-50C6-A54F-ACC3-3A34F00737D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -371,18 +371,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -391,7 +391,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -519,7 +519,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -837,7 +837,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -847,7 +847,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -875,7 +875,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -883,7 +883,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -891,7 +891,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -899,7 +899,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -907,7 +907,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -915,7 +915,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -923,7 +923,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -931,7 +931,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -939,7 +939,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -947,7 +947,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -969,7 +969,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -979,7 +979,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1">
+    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="105" customHeight="1">
+    <row r="8" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>68</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -1131,7 +1131,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1139,7 +1139,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1164,7 +1164,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1174,7 +1174,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1202,7 +1202,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1210,7 +1210,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1218,7 +1218,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1226,7 +1226,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1234,7 +1234,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1242,7 +1242,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1250,7 +1250,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1258,7 +1258,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1266,7 +1266,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1274,7 +1274,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1296,7 +1296,7 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -1306,7 +1306,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95" customHeight="1">
+    <row r="2" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="87" customHeight="1">
+    <row r="3" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1">
+    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1474,7 +1474,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1482,7 +1482,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -1490,7 +1490,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -1512,10 +1512,10 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1525,7 +1525,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1655,7 +1655,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1663,7 +1663,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1671,7 +1671,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -1696,7 +1696,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1706,7 +1706,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1734,7 +1734,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1742,7 +1742,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1750,7 +1750,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1758,7 +1758,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1766,7 +1766,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1774,7 +1774,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1782,7 +1782,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1790,7 +1790,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1798,7 +1798,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1806,7 +1806,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1828,7 +1828,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1838,7 +1838,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1866,7 +1866,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1874,7 +1874,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1882,7 +1882,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1890,7 +1890,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1898,7 +1898,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1906,7 +1906,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1914,7 +1914,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1922,7 +1922,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1930,7 +1930,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1938,7 +1938,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{05263C49-50C6-A54F-ACC3-3A34F00737D2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EAC011-644C-5B45-9034-E8FC1C0DA676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -371,18 +371,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -391,7 +391,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -519,7 +519,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,7 +535,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -837,7 +837,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -847,7 +847,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -875,7 +875,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -883,7 +883,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -891,7 +891,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -899,7 +899,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -907,7 +907,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -915,7 +915,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -923,7 +923,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -931,7 +931,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -939,7 +939,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -947,7 +947,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -969,7 +969,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -979,7 +979,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="48" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="105" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>68</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -1131,7 +1131,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1139,7 +1139,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1164,7 +1164,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1174,7 +1174,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1202,7 +1202,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1210,7 +1210,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1218,7 +1218,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1226,7 +1226,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1234,7 +1234,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1242,7 +1242,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1250,7 +1250,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1258,7 +1258,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1266,7 +1266,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1274,7 +1274,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1296,7 +1296,7 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -1306,7 +1306,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="87" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1362,7 +1362,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="87" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1474,7 +1474,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1482,7 +1482,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -1490,7 +1490,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="57" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -1512,10 +1512,10 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1525,7 +1525,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1573,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -1595,7 +1595,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1655,7 +1655,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1663,7 +1663,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1671,7 +1671,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="57" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -1696,7 +1696,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1706,7 +1706,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1734,7 +1734,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1742,7 +1742,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1750,7 +1750,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1758,7 +1758,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1766,7 +1766,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1774,7 +1774,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1782,7 +1782,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1790,7 +1790,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1798,7 +1798,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1806,7 +1806,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1828,7 +1828,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1838,7 +1838,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1866,7 +1866,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1874,7 +1874,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1882,7 +1882,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1890,7 +1890,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1898,7 +1898,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1906,7 +1906,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1914,7 +1914,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1922,7 +1922,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1930,7 +1930,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1938,7 +1938,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EAC011-644C-5B45-9034-E8FC1C0DA676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB50263-18CD-F544-8EF9-DEC699498864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,12 @@
   <si>
     <t>1.退出弹窗出现"关注并退出"
 2.退出后重进直播间确认已关注成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播间主播昵称变化
+2.直播间喜爱值变化
+3.直播间话题变化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1512,7 +1518,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1556,8 +1562,8 @@
       <c r="D2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
+      <c r="E2" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F2" s="5"/>
     </row>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB50263-18CD-F544-8EF9-DEC699498864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{735B0457-D7D9-514D-8DC1-97A22D6C3A17}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -377,18 +377,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -397,7 +397,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -525,7 +525,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,7 +843,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -853,7 +853,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -881,7 +881,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -889,7 +889,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -897,7 +897,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -905,7 +905,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -913,7 +913,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -921,7 +921,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -929,7 +929,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -937,7 +937,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -945,7 +945,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -953,7 +953,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -975,7 +975,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -985,7 +985,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1">
+    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="105" customHeight="1">
+    <row r="8" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>68</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -1137,7 +1137,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1145,7 +1145,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1170,7 +1170,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1180,7 +1180,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1208,7 +1208,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1216,7 +1216,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1224,7 +1224,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1232,7 +1232,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1240,7 +1240,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1248,7 +1248,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1256,7 +1256,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1264,7 +1264,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1272,7 +1272,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1280,7 +1280,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1302,7 +1302,7 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -1312,7 +1312,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95" customHeight="1">
+    <row r="2" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="87" customHeight="1">
+    <row r="3" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1">
+    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1480,7 +1480,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1488,7 +1488,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -1496,7 +1496,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -1518,10 +1518,10 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1531,7 +1531,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1661,7 +1661,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1669,7 +1669,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1677,7 +1677,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -1702,7 +1702,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1712,7 +1712,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1740,7 +1740,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1748,7 +1748,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1756,7 +1756,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1764,7 +1764,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1772,7 +1772,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1780,7 +1780,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1788,7 +1788,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1796,7 +1796,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1804,7 +1804,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1812,7 +1812,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1834,7 +1834,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1844,7 +1844,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1872,7 +1872,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1880,7 +1880,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1888,7 +1888,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1896,7 +1896,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1904,7 +1904,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1912,7 +1912,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1920,7 +1920,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1928,7 +1928,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1936,7 +1936,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1944,7 +1944,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{735B0457-D7D9-514D-8DC1-97A22D6C3A17}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9F755B-246D-0A45-8116-DEA1A6D71786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -377,18 +377,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -397,7 +397,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -525,7 +525,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,7 +541,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,7 +843,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -853,7 +853,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -881,7 +881,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -889,7 +889,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -897,7 +897,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -905,7 +905,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -913,7 +913,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -921,7 +921,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -929,7 +929,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -937,7 +937,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -945,7 +945,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -953,7 +953,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -975,7 +975,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -985,7 +985,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="48" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="105" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="7" t="s">
         <v>68</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -1137,7 +1137,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1145,7 +1145,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1170,7 +1170,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1180,7 +1180,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1208,7 +1208,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1216,7 +1216,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1224,7 +1224,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1232,7 +1232,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1240,7 +1240,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1248,7 +1248,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1256,7 +1256,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1264,7 +1264,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1272,7 +1272,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1280,7 +1280,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1302,7 +1302,7 @@
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -1312,7 +1312,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="87" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="87" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1480,7 +1480,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1488,7 +1488,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -1496,7 +1496,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="57" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -1517,11 +1517,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1531,7 +1531,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>52</v>
       </c>
@@ -1601,7 +1601,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1661,7 +1661,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1669,7 +1669,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1677,7 +1677,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="57" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -1702,7 +1702,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1712,7 +1712,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1740,7 +1740,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1748,7 +1748,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1756,7 +1756,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1764,7 +1764,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1772,7 +1772,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1780,7 +1780,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1788,7 +1788,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1796,7 +1796,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1804,7 +1804,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1812,7 +1812,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1834,7 +1834,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1844,7 +1844,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1872,7 +1872,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1880,7 +1880,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1888,7 +1888,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1896,7 +1896,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1904,7 +1904,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1912,7 +1912,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1920,7 +1920,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1928,7 +1928,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1936,7 +1936,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1944,7 +1944,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9F755B-246D-0A45-8116-DEA1A6D71786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CE7A9B-6E1B-9C44-A732-F66AD4DD6214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,26 +110,12 @@
   </si>
   <si>
     <t>AnchorLiveRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.创建直播间
-2.点击上麦按钮
-3.打开上麦开关
-4.关闭连麦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.点击上麦按钮，此时开关默认关闭，显示连麦未开启
 2.打开连麦开关，显示连麦接通，等待用户接入
 3.关闭连麦，连麦面板收起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.创建直播间
-2.点击更多按钮-交友模式
-3.确认打开交友模式
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,49 +197,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.创建直播间
-2.点击更多按钮-静音模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发红包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.创建直播间
-2.点击更多按钮-发言
-3.输入内容“随便说说”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.发送后，主播间展示发言内容“随便说说”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.创建直播间
-2.点击更多按钮-发红包
-3.跳转发红包页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.确认页面title为发红包页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedPacket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.创建直播间
-2.点击更多按钮-话题
-3.输入话题内容“大家好”，确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.点击确定按钮后，主播间提示“新话题：大家好”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,10 +218,6 @@
   </si>
   <si>
     <t>左右切换直播间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜钻页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -333,32 +280,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.进入直播间
-2.左滑切换直播间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10分钟之内退出直播间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10分钟之后退出直播间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.进入直播间
-2.等待1分钟后退出直播间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.退出弹窗无"关注并退出"
 2.点击退出正常返回首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.进入直播间
-2.等待10分钟退出
-3.点击"关注并退出"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,6 +301,168 @@
     <t>1.直播间主播昵称变化
 2.直播间喜爱值变化
 3.直播间话题变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼物面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入PK直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入普通直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入交友模式直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入普通直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入直播间
+2.左滑切换直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入交友模式直播间
+2.点击底部上麦按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.显示交友位置，按钮文案显示上麦
+2.点击上麦后弹出上麦队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入PK直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.显示PK面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.显示普通直播间样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseEnterLiveRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseExitLiveRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入直播间
+2.点击礼物面板
+3.向左滑动切换至背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.默认选中礼物
+2.向左滑动后确认对应的是背包tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入直播间
+2.等待1分钟后退出直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入直播间
+2.等待10分钟退出
+3.点击"关注并退出"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入直播间
+2.打开弹幕开关
+3.点击粉丝弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入直播间
+2.打开弹幕开关
+3.关闭弹幕开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.弹出弹幕选择框，默认选中普通弹幕
+2.关闭后收起弹幕选择框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击粉丝弹幕后，弹出加入粉丝团弹窗
+2.关闭弹窗，打开弹幕，仍然选中普通弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入直播间
+2.打开弹幕开关
+3.点击贵族弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击贵族弹幕后，弹出开通贵族弹窗
+2.关闭弹窗，再次打开聊天框，仍然选中普通弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵族弹幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.点击上麦按钮
+3.打开上麦开关
+4.关闭连麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.直播首页创建直播间
+2.点击更多按钮-交友模式
+3.确认打开交友模式
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.点击更多按钮-静音模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.点击更多按钮-话题
+3.输入话题内容“大家好”，确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.点击更多按钮-发言
+3.输入内容“随便说说”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.关闭直播间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,12 +506,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +546,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,20 +589,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -993,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1013,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
@@ -1031,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>14</v>
@@ -1049,7 +1139,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>17</v>
@@ -1067,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>4</v>
@@ -1079,53 +1169,53 @@
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="48" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="105" customHeight="1">
-      <c r="A8" s="19"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -1188,7 +1278,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1298,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
@@ -1320,7 +1410,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1337,16 +1427,16 @@
         <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1354,17 +1444,17 @@
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>59</v>
+      <c r="B3" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -1372,15 +1462,15 @@
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -1388,15 +1478,15 @@
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -1405,16 +1495,16 @@
         <v>19</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="8"/>
     </row>
@@ -1423,16 +1513,16 @@
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -1441,35 +1531,31 @@
         <v>19</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="57" customHeight="1">
@@ -1515,10 +1601,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1539,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1553,128 +1639,174 @@
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="76" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="17" t="s">
-        <v>70</v>
+        <v>43</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="85" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="20"/>
+        <v>43</v>
+      </c>
+      <c r="B9" s="21"/>
       <c r="C9" s="6" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
+    <row r="10" spans="1:6" ht="85" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>61</v>
+      </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="57" customHeight="1">
@@ -1685,9 +1817,35 @@
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
+    <row r="14" spans="1:6" ht="57" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="57" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="57" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="3">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1720,7 +1878,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1852,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CE7A9B-6E1B-9C44-A732-F66AD4DD6214}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0533CA1-5074-2F43-BA35-2994AF55D794}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,6 +463,10 @@
   <si>
     <t>1.直播首页创建直播间
 2.关闭直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseBullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1388,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
@@ -1603,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1723,7 +1727,9 @@
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="C7" s="6" t="s">
         <v>87</v>
       </c>
@@ -1768,7 +1774,9 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="85" customHeight="1">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
       <c r="D10" s="7"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0533CA1-5074-2F43-BA35-2994AF55D794}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9765B37-5075-0749-A930-C301FAEE0601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
   </si>
   <si>
     <t>CaseCheckCreateLiveRoomBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热门分类tab存在并且有5个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,6 +463,18 @@
   </si>
   <si>
     <t>CaseBullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击首页直播tab
+2.上滑页面至tab一栏固定
+3.下滑页面至tab回到默认位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.分类tab存在并且有5个
+2.上滑后tab固定不会隐藏
+3.下滑后tab回到固定位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -615,6 +629,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -955,7 +978,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1065,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1087,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1107,13 +1130,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1125,31 +1148,31 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="23" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -1158,68 +1181,68 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="48" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="105" customHeight="1">
       <c r="A8" s="20"/>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -1282,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1414,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1428,136 +1451,136 @@
     </row>
     <row r="2" spans="1:6" ht="95" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="87" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="87" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
@@ -1607,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1629,7 +1652,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -1643,139 +1666,139 @@
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="76" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="85" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="85" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="18"/>
@@ -1785,35 +1808,35 @@
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1886,7 +1909,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>
@@ -2018,7 +2041,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>1</v>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9765B37-5075-0749-A930-C301FAEE0601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25225F14-30A4-1347-91C6-2AA9383D5441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -467,13 +467,13 @@
   </si>
   <si>
     <t>1.点击首页直播tab
-2.上滑页面至tab一栏固定
+2.上滑页面至顶部后继续滑动
 3.下滑页面至tab回到默认位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.分类tab存在并且有5个
-2.上滑后tab固定不会隐藏
+2.tab一栏固定
 3.下滑后tab回到固定位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,19 +625,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1089,7 +1089,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1159,19 +1159,19 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="8"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="74" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -1212,8 +1212,8 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="48" customHeight="1">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:6" ht="84" customHeight="1">
+      <c r="A7" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1231,7 +1231,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="105" customHeight="1">
-      <c r="A8" s="20"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1489,7 +1489,7 @@
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
@@ -1700,16 +1700,16 @@
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>73</v>
       </c>
       <c r="F4" s="8"/>
@@ -1718,7 +1718,7 @@
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="16" t="s">
         <v>66</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="24" t="s">
         <v>96</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1768,7 +1768,7 @@
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="6" t="s">
         <v>87</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="6" t="s">
         <v>88</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -1828,7 +1828,7 @@
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="6" t="s">
         <v>59</v>
       </c>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25225F14-30A4-1347-91C6-2AA9383D5441}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FACFCE95-E55C-0D48-9D98-991CF5BC00BA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -482,18 +482,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -502,7 +502,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -642,7 +642,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -960,7 +960,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -970,7 +970,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -998,7 +998,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1006,7 +1006,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1014,7 +1014,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1022,7 +1022,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1030,7 +1030,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1038,7 +1038,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1046,7 +1046,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1054,7 +1054,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1062,7 +1062,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1070,7 +1070,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1088,11 +1088,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -1102,7 +1102,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="74" customHeight="1">
+    <row r="6" spans="1:6" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="84" customHeight="1">
+    <row r="7" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>44</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="105" customHeight="1">
+    <row r="8" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="7" t="s">
         <v>57</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -1254,7 +1254,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1262,7 +1262,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1287,7 +1287,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1297,7 +1297,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1325,7 +1325,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1333,7 +1333,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1341,7 +1341,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1349,7 +1349,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1357,7 +1357,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1365,7 +1365,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1373,7 +1373,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1381,7 +1381,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1389,7 +1389,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1397,7 +1397,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1415,11 +1415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -1429,7 +1429,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95" customHeight="1">
+    <row r="2" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="87" customHeight="1">
+    <row r="3" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1">
+    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1593,7 +1593,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1601,7 +1601,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -1609,7 +1609,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -1634,7 +1634,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1644,7 +1644,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="76" customHeight="1">
+    <row r="8" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="85" customHeight="1">
+    <row r="9" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="85" customHeight="1">
+    <row r="10" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
+    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -1848,7 +1848,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="57" customHeight="1">
+    <row r="14" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -1856,7 +1856,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="57" customHeight="1">
+    <row r="15" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -1864,7 +1864,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="57" customHeight="1">
+    <row r="16" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
@@ -1891,7 +1891,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1901,7 +1901,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1929,7 +1929,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1937,7 +1937,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1945,7 +1945,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1953,7 +1953,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1961,7 +1961,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1969,7 +1969,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1977,7 +1977,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1985,7 +1985,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1993,7 +1993,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -2001,7 +2001,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -2023,7 +2023,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -2033,7 +2033,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -2061,7 +2061,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -2069,7 +2069,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -2077,7 +2077,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -2085,7 +2085,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
+    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -2093,7 +2093,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
+    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -2101,7 +2101,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
+    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -2109,7 +2109,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2117,7 +2117,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
+    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -2125,7 +2125,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -2133,7 +2133,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FACFCE95-E55C-0D48-9D98-991CF5BC00BA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015226D-7DF9-604E-9DF2-5D416673E400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -482,18 +482,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -502,7 +502,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -642,7 +642,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -960,7 +960,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -970,7 +970,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -998,7 +998,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1006,7 +1006,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1014,7 +1014,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1022,7 +1022,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1030,7 +1030,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1038,7 +1038,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1046,7 +1046,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1054,7 +1054,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1062,7 +1062,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1070,7 +1070,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1092,7 +1092,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -1102,7 +1102,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="20" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="74" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="84" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>44</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="105" customHeight="1">
       <c r="A8" s="23"/>
       <c r="B8" s="7" t="s">
         <v>57</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6"/>
@@ -1254,7 +1254,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1262,7 +1262,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1287,7 +1287,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1297,7 +1297,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1325,7 +1325,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1333,7 +1333,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1341,7 +1341,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1349,7 +1349,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1357,7 +1357,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1365,7 +1365,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1373,7 +1373,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1381,7 +1381,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1389,7 +1389,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -1397,7 +1397,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -1415,11 +1415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
@@ -1429,7 +1429,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="95" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="87" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="87" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>18</v>
       </c>
@@ -1585,7 +1585,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6"/>
@@ -1593,7 +1593,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6"/>
@@ -1601,7 +1601,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6"/>
@@ -1609,7 +1609,7 @@
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="57" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="9"/>
       <c r="C13" s="6"/>
@@ -1630,11 +1630,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1644,7 +1644,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="76" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="85" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="85" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="57" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6"/>
@@ -1848,7 +1848,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="57" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6"/>
@@ -1856,7 +1856,7 @@
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="57" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="6"/>
@@ -1864,7 +1864,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="57" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="6"/>
@@ -1891,7 +1891,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -1901,7 +1901,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1929,7 +1929,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -1937,7 +1937,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -1945,7 +1945,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -1953,7 +1953,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -1961,7 +1961,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -1969,7 +1969,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -1977,7 +1977,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -1985,7 +1985,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -1993,7 +1993,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -2001,7 +2001,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>
@@ -2023,7 +2023,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
@@ -2033,7 +2033,7 @@
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -2061,7 +2061,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
@@ -2069,7 +2069,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
@@ -2077,7 +2077,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="57" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6"/>
@@ -2085,7 +2085,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="57" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="6"/>
@@ -2093,7 +2093,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="57" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="6"/>
@@ -2101,7 +2101,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="6"/>
@@ -2109,7 +2109,7 @@
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
@@ -2117,7 +2117,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="57" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="6"/>
@@ -2125,7 +2125,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="6"/>
@@ -2133,7 +2133,7 @@
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015226D-7DF9-604E-9DF2-5D416673E400}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D5D815-EAAC-624D-9BFA-485D2A16F3CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -356,17 +356,6 @@
   </si>
   <si>
     <t>1.直播首页进入直播间
-2.点击礼物面板
-3.向左滑动切换至背包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.默认选中礼物
-2.向左滑动后确认对应的是背包tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.直播首页进入直播间
 2.等待1分钟后退出直播间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +464,19 @@
     <t>1.分类tab存在并且有5个
 2.tab一栏固定
 3.下滑后tab回到固定位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页进入直播间
+2.点击礼物面板
+3.点击每个tab
+4.从左向右滑动页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.默认选中礼物
+2.点击每个tab对应物品正确
+3.从左向右滑动，切换tab正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1187,10 +1189,10 @@
         <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -1460,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>19</v>
@@ -1478,7 +1480,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>21</v>
@@ -1528,7 +1530,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>36</v>
@@ -1546,7 +1548,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1564,7 +1566,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1577,10 +1579,10 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
@@ -1680,7 +1682,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="94" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1689,10 +1691,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -1751,16 +1753,16 @@
         <v>42</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="8"/>
     </row>
@@ -1770,13 +1772,13 @@
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -1786,13 +1788,13 @@
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -1817,7 +1819,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1833,7 +1835,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>61</v>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D5D815-EAAC-624D-9BFA-485D2A16F3CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DF815E-9383-A745-90A9-24FFB3C34ED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="创建直播间" sheetId="6" r:id="rId3"/>
     <sheet name="主播端直播间" sheetId="8" r:id="rId4"/>
     <sheet name="用户端直播间" sheetId="2" r:id="rId5"/>
-    <sheet name="发现页" sheetId="3" r:id="rId6"/>
+    <sheet name="未成年模式" sheetId="3" r:id="rId6"/>
     <sheet name="广播" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1889,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC2795-92DB-3841-9BE9-310F5F7385AC}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DF815E-9383-A745-90A9-24FFB3C34ED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273AD859-CA94-EC43-85AC-1D2AAFB75A6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="5" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -1632,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1889,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AEC2795-92DB-3841-9BE9-310F5F7385AC}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273AD859-CA94-EC43-85AC-1D2AAFB75A6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86C73798-4724-884B-949D-A24DC33223F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,25 @@
     <t>1.默认选中礼物
 2.点击每个tab对应物品正确
 3.从左向右滑动，切换tab正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入预告直播间</t>
+    <rPh sb="0" eb="2">
+      <t>jin'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入已结束的直播间</t>
+    <rPh sb="0" eb="2">
+      <t>jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播间首页点击直播动态
+2.选中即将开始的直播间进入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1630,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1752,110 +1771,118 @@
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>80</v>
+      <c r="B7" s="24"/>
+      <c r="C7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="76" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>42</v>
-      </c>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="3"/>
       <c r="B8" s="24"/>
-      <c r="C8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>81</v>
+      <c r="C8" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="85" customHeight="1">
+    <row r="9" spans="1:6" ht="57" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="24" t="s">
+        <v>94</v>
+      </c>
       <c r="C9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="85" customHeight="1">
+    <row r="10" spans="1:6" ht="76" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
+    <row r="11" spans="1:6" ht="85" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>58</v>
+      <c r="B11" s="24"/>
+      <c r="C11" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
+    <row r="12" spans="1:6" ht="85" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="57" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="57" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="57" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="57" customHeight="1">
@@ -1874,11 +1901,27 @@
       <c r="E16" s="7"/>
       <c r="F16" s="8"/>
     </row>
+    <row r="17" spans="1:6" ht="57" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="57" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{86C73798-4724-884B-949D-A24DC33223F5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4FA38-7E3C-D147-8A71-2A82CFA34B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -496,6 +496,51 @@
   <si>
     <t>1.直播间首页点击直播动态
 2.选中即将开始的直播间进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minorProtection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开未成年模式
+2.首页点击直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转未成年模式页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开未成年模式
+2.直播动态进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开未成年模式
+2.搜索页搜索"倾城之恋_"
+3.点击直播跳转直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseGIftPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.显示预告开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播间首页点击直播动态
+2.选中直播结束的直播间进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.显示已结束直播的主播名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +698,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1109,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1234,7 +1282,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="84" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1252,7 +1300,7 @@
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="105" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="7" t="s">
         <v>57</v>
       </c>
@@ -1492,7 +1540,7 @@
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1510,7 +1558,7 @@
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
@@ -1526,7 +1574,7 @@
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="6" t="s">
         <v>34</v>
       </c>
@@ -1651,14 +1699,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
@@ -1689,7 +1737,7 @@
       <c r="A2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>43</v>
       </c>
@@ -1705,7 +1753,9 @@
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="23" t="s">
+        <v>108</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
@@ -1721,7 +1771,7 @@
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -1739,7 +1789,7 @@
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="16" t="s">
         <v>66</v>
       </c>
@@ -1755,7 +1805,7 @@
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
@@ -1771,23 +1821,29 @@
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="E7" t="s">
+        <v>109</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -1795,7 +1851,7 @@
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1813,7 +1869,7 @@
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="6" t="s">
         <v>85</v>
       </c>
@@ -1829,7 +1885,7 @@
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="6" t="s">
         <v>86</v>
       </c>
@@ -1845,7 +1901,7 @@
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="18"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1855,7 +1911,7 @@
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>75</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1873,7 +1929,7 @@
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="6" t="s">
         <v>59</v>
       </c>
@@ -1886,8 +1942,10 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="57" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="23"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1895,7 +1953,7 @@
     </row>
     <row r="16" spans="1:6" ht="57" customHeight="1">
       <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1903,7 +1961,7 @@
     </row>
     <row r="17" spans="1:6" ht="57" customHeight="1">
       <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1911,7 +1969,7 @@
     </row>
     <row r="18" spans="1:6" ht="57" customHeight="1">
       <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1933,7 +1991,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1967,27 +2025,45 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4FA38-7E3C-D147-8A71-2A82CFA34B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C8D42-411B-EB4F-BD8F-225E00D16B44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="164">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>结果</t>
-  </si>
-  <si>
-    <t>点击首页直播tab</t>
   </si>
   <si>
     <t>TestSuite</t>
@@ -88,11 +85,6 @@
   <si>
     <t>1.首页搜索框存在
 2.搜索页搜索按钮存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.首页我要直播按钮
-2.搜索页创建按钮存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直播间列表存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UserLiveRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +332,6 @@
   </si>
   <si>
     <t>1.显示普通直播间样式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseEnterLiveRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,11 +430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.直播首页创建直播间
-2.关闭直播间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CaseBullet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,6 +520,292 @@
   </si>
   <si>
     <t>1.显示已结束直播的主播名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseEnterLiveRoomByType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseEnterLiveRoomByPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页进入直播间</t>
+    <rPh sb="0" eb="2">
+      <t>shou'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseSwipeRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播动态进入直播间</t>
+    <rPh sb="0" eb="2">
+      <t>zhi'bo'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索结果页进入直播间</t>
+    <rPh sb="0" eb="2">
+      <t>s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我听页面进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人页进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现页语音交友页面进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.搜索页搜索"倾城之恋_"
+3.点击直播跳转直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页直播动态进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.App首页进入直播间</t>
+    <rPh sb="0" eb="9">
+      <t>shou'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.我听页面点击顶部直播间进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.个人页点击直播间进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.发现页语音交友糖葫芦进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iting方式进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肚脐眼进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.首页我要直播按钮
+2.创建按钮存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取直播间类型
+2.退出直播间正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.获取直播间类型
+3.退出直播间正常</t>
+  </si>
+  <si>
+    <t>1.获取直播间类型
+4.退出直播间正常</t>
+  </si>
+  <si>
+    <t>1.获取直播间类型
+5.退出直播间正常</t>
+  </si>
+  <si>
+    <t>创建直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.正常进入直播间
+2.查看话题与设置的一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.关闭直播间
+3.保存专辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.退出直播间成功，出现保存专辑页面
+2.保存直播到专辑成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页点击我要直播按钮
+2.输入标题“大家好”
+3.输入话题“随便聊”
+4.勾选通知粉丝
+5.点击开始直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页点击我要直播按钮
+2.点击创建预告
+3.点击发布预告
+4.退出后再次点击我要直播按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.预告页面时间为当前时间如果未超过半小时，默认下个半点半小时时间；超出半小时，默认下个小时开始
+2.结束时间超出预告时间1小时
+3.发布预告后，底部显示分享直播和立即开播
+4.退出重进，仍然显示预告页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页点击我要直播按钮
+2.输入话题创建预告
+3.点击编辑预告，修改话题
+4.保存预告
+5.立即开播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.保存预告，页面正常保存
+2.立即开播，话题使用新的话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑预告时删除预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页点击我要直播按钮
+2.输入话题创建预告
+3.点击编辑预告
+4.删除预告
+5.再次点击我要直播按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.删除成功，返回到直播首页
+2.点击我要直播按钮，页面需重新创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置交友模式玩法为心动时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击交友队列入口
+2.点击玩法设置
+3.选择心动模式
+4.发起心动模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.提示无法发起模式，仍停留在设置页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击交友队列入口
+2.点击玩法设置
+3.选择团战模式
+4.开启团战模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置交友模式玩法为团队模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击交友队列入口
+2.关闭团战结果页
+3.退出设置页面返回直播间页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭交友团战模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.关闭设置页面，返回直播间页面
+2.开启团战模式成功，出现vs图标，并且图标在屏幕中间，聊天框提示开启团战PK
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.关闭后出现团战结果页，点击确定关闭结果页
+2.返回直播页面后展示普通交友模式样式，无vs图标，聊天框提示结束团战PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.点击更多按钮-图片
+3.选择图片发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.发送后，主播间展示图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseSendPicture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上热门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.点击更多按钮-上热门
+3.关闭上热门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.点击更多按钮-背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.只有背包tab，无礼物等tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击上热门，直播间右侧展示热门火箭，聊天框提示开启热门小火箭
+2.关闭上热门，火箭消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击首页直播tab
+2.切换tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页直播间展示
+2.切换tab后，直播间展示正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +839,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,8 +858,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -624,13 +895,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,9 +947,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -673,40 +956,79 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1348,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1040,22 +1362,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1155,16 +1477,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="48.83203125" customWidth="1"/>
@@ -1172,146 +1494,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C2" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="D3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="74" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="84" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="105" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="E8" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="74" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="84" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="105" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -1331,17 +1653,9 @@
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1350,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1367,55 +1681,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
+    <row r="2" spans="1:6" ht="87" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
+    <row r="3" spans="1:6" ht="138" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
+    <row r="4" spans="1:6" ht="95" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
+    <row r="5" spans="1:6" ht="88" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
@@ -1425,54 +1763,6 @@
       <c r="D6" s="8"/>
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1482,16 +1772,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="39.1640625" customWidth="1"/>
@@ -1499,196 +1789,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="95" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="87" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="87" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="87" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="87" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="87" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="57" customHeight="1">
+      <c r="A14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="87" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="87" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="57" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="57" customHeight="1">
+      <c r="A15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B9:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,289 +2049,382 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="29" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:6" ht="49" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="47" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="47" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="37" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="38" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="38" customHeight="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="38" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="38" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="38" customHeight="1">
+      <c r="A10" s="19"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" customHeight="1">
+      <c r="A11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="57" customHeight="1">
+      <c r="A12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="57" customHeight="1">
+      <c r="A13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="57" customHeight="1">
+      <c r="A14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="94" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="E14" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="57" customHeight="1">
+      <c r="A15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="57" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="57" customHeight="1">
+      <c r="A17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="94" customHeight="1">
+      <c r="A18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="57" customHeight="1">
+      <c r="A19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="76" customHeight="1">
+      <c r="A20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="E20" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="85" customHeight="1">
+      <c r="A21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="57" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="57" customHeight="1">
+      <c r="A23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="57" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="76" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="85" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="85" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="E23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="57" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="57" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="57" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="57" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="57" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
+      <c r="F23" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B4:B8"/>
+  <mergeCells count="4">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B2:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1991,7 +2436,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2005,52 +2450,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -2059,10 +2504,10 @@
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -2155,22 +2600,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190C8D42-411B-EB4F-BD8F-225E00D16B44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71AC5A5-EB41-3648-828C-AC7C2F9B5159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="167">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -632,17 +632,6 @@
   <si>
     <t>1.正常进入直播间
 2.查看话题与设置的一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.直播首页创建直播间
-2.关闭直播间
-3.保存专辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.退出直播间成功，出现保存专辑页面
-2.保存直播到专辑成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -806,6 +795,31 @@
   <si>
     <t>1.直播首页直播间展示
 2.切换tab后，直播间展示正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页创建直播间
+2.关闭直播间
+3.取消保存
+4.点击保存回听按钮
+4.成功保存页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.取消保存，关闭保存页面，左上角出现保存回听按钮
+2.重新保存后，保存页面消失，左上角提示已保存回听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseHotRocket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseAnchorBag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseAncheorExitRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +930,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,19 +1030,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1578,15 +1595,15 @@
         <v>28</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="84" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1604,7 +1621,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="105" customHeight="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="13" t="s">
         <v>54</v>
       </c>
@@ -1666,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1707,7 +1724,7 @@
         <v>129</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>130</v>
@@ -1718,13 +1735,13 @@
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -1732,13 +1749,13 @@
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -1746,13 +1763,13 @@
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -1774,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1881,46 +1898,56 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="B6" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="30" t="s">
+      <c r="E7" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D8" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="30" t="s">
+      <c r="E8" s="21" t="s">
         <v>158</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -1928,7 +1955,7 @@
       <c r="A9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="37" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="23" t="s">
@@ -1946,7 +1973,7 @@
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
         <v>31</v>
       </c>
@@ -1962,15 +1989,15 @@
       <c r="A11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -1978,15 +2005,15 @@
       <c r="A12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -1994,15 +2021,15 @@
       <c r="A13" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -2010,7 +2037,7 @@
       <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
@@ -2022,19 +2049,21 @@
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="57" customHeight="1">
+    <row r="15" spans="1:6" ht="89" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>132</v>
+      <c r="D15" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>163</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -2051,7 +2080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
@@ -2066,22 +2095,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2089,7 +2118,7 @@
       <c r="A2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>108</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -2107,7 +2136,7 @@
       <c r="A3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="23" t="s">
         <v>111</v>
       </c>
@@ -2123,7 +2152,7 @@
       <c r="A4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="23" t="s">
         <v>112</v>
       </c>
@@ -2137,7 +2166,7 @@
     </row>
     <row r="5" spans="1:6" ht="37" customHeight="1">
       <c r="A5" s="19"/>
-      <c r="B5" s="34"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="19" t="s">
         <v>114</v>
       </c>
@@ -2151,7 +2180,7 @@
     </row>
     <row r="6" spans="1:6" ht="38" customHeight="1">
       <c r="A6" s="19"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="19" t="s">
         <v>115</v>
       </c>
@@ -2165,7 +2194,7 @@
     </row>
     <row r="7" spans="1:6" ht="38" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="34"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="19" t="s">
         <v>122</v>
       </c>
@@ -2177,7 +2206,7 @@
     </row>
     <row r="8" spans="1:6" ht="38" customHeight="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="19" t="s">
         <v>123</v>
       </c>
@@ -2189,7 +2218,7 @@
     </row>
     <row r="9" spans="1:6" ht="38" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="19"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -2197,7 +2226,7 @@
     </row>
     <row r="10" spans="1:6" ht="38" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="34"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="19"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2207,7 +2236,7 @@
       <c r="A11" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="19" t="s">
         <v>113</v>
       </c>
@@ -2223,7 +2252,7 @@
       <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="38" t="s">
         <v>107</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -2241,7 +2270,7 @@
       <c r="A13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="23" t="s">
         <v>63</v>
       </c>
@@ -2257,7 +2286,7 @@
       <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="23" t="s">
         <v>61</v>
       </c>
@@ -2273,21 +2302,21 @@
       <c r="A15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="23" t="s">
         <v>94</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="33" t="s">
         <v>104</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="57" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="23" t="s">
         <v>95</v>
       </c>
@@ -2339,7 +2368,7 @@
       <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="38" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="23" t="s">
@@ -2357,7 +2386,7 @@
       <c r="A20" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="23" t="s">
         <v>81</v>
       </c>
@@ -2373,7 +2402,7 @@
       <c r="A21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="34"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="23" t="s">
         <v>82</v>
       </c>
@@ -2389,7 +2418,7 @@
       <c r="A22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="38" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="23" t="s">
@@ -2407,7 +2436,7 @@
       <c r="A23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="34"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="23" t="s">
         <v>56</v>
       </c>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71AC5A5-EB41-3648-828C-AC7C2F9B5159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1927E7BC-A7FA-CF4A-9FD7-7005DE20ED31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1927E7BC-A7FA-CF4A-9FD7-7005DE20ED31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F3911-7F30-6C46-9488-6A7BD8DB9C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="172">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,9 +39,6 @@
   <si>
     <t>步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiveIndex</t>
   </si>
   <si>
     <t>结果</t>
@@ -94,10 +91,6 @@
   </si>
   <si>
     <t>1.跳转后榜单名称与之前选中的一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnchorLiveRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,15 +190,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserLiveRoom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>左右切换直播间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiveIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -652,20 +637,6 @@
   </si>
   <si>
     <t>1.直播首页点击我要直播按钮
-2.点击创建预告
-3.点击发布预告
-4.退出后再次点击我要直播按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.预告页面时间为当前时间如果未超过半小时，默认下个半点半小时时间；超出半小时，默认下个小时开始
-2.结束时间超出预告时间1小时
-3.发布预告后，底部显示分享直播和立即开播
-4.退出重进，仍然显示预告页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.直播首页点击我要直播按钮
 2.输入话题创建预告
 3.点击编辑预告，修改话题
 4.保存预告
@@ -675,10 +646,6 @@
   <si>
     <t>1.保存预告，页面正常保存
 2.立即开播，话题使用新的话题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑预告时删除预告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -820,6 +787,60 @@
   </si>
   <si>
     <t>CaseAncheorExitRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createliveroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liveindex</t>
+  </si>
+  <si>
+    <t>liveindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anchorliveRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userliveroom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.直播首页点击我要直播按钮
+2.点击创建预告
+3.点击发布预告
+4.退出后再次点击我要直播按钮
+5.点击立即开播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.发布预告后，页面title显示直播预告
+2.退出重进，仍然显示预告页面
+3.立即开播，可以正常开始直播
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除预告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseCreateLiveRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseCreatePreviewRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseEditPreview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseDeletePreview</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,78 +995,78 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1380,13 +1401,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -1395,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
@@ -1496,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1512,13 +1533,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -1527,130 +1548,130 @@
         <v>0</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="74" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="84" customHeight="1">
+      <c r="A6" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="105" customHeight="1">
+      <c r="A7" s="35"/>
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="D8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="74" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="84" customHeight="1">
-      <c r="A6" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="105" customHeight="1">
-      <c r="A7" s="36"/>
-      <c r="B7" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="F8" s="8"/>
     </row>
@@ -1681,16 +1702,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="10" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
@@ -1699,13 +1720,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -1714,72 +1735,80 @@
         <v>0</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="87" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="138" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="95" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="88" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="138" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="95" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="88" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1791,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1806,14 +1835,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -1822,248 +1851,248 @@
         <v>0</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="95" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="57" customHeight="1">
+      <c r="A3" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="57" customHeight="1">
+      <c r="A4" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="57" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1">
+      <c r="A6" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="87" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="87" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="87" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="87" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="87" customHeight="1">
+      <c r="A13" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="57" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="89" customHeight="1">
+      <c r="A15" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="E15" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="87" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="87" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="87" customHeight="1">
-      <c r="A11" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="87" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="87" customHeight="1">
-      <c r="A13" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="57" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="89" customHeight="1">
-      <c r="A15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="F15" s="8"/>
     </row>
@@ -2081,7 +2110,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2095,356 +2124,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>3</v>
+      <c r="F1" s="31" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="47" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="47" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="D4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="37" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="38" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="38" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="18" t="s">
         <v>118</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="47" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="47" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="37" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="38" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="38" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="38" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="19" t="s">
-        <v>123</v>
+      <c r="A8" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="38" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="38" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="19"/>
+      <c r="A10" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1">
-      <c r="A11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="19" t="s">
-        <v>113</v>
+      <c r="A11" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="57" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="57" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="57" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="57" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="57" customHeight="1">
+      <c r="A17" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="94" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="57" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="76" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="57" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="21" t="s">
+      <c r="E20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="85" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="57" customHeight="1">
+      <c r="A22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="57" customHeight="1">
-      <c r="A14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="21" t="s">
+      <c r="C22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E22" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="57" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="57" customHeight="1">
-      <c r="A15" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="57" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="57" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="94" customHeight="1">
-      <c r="A18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="57" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="76" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="85" customHeight="1">
-      <c r="A21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="57" customHeight="1">
-      <c r="A22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="57" customHeight="1">
-      <c r="A23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>58</v>
+      <c r="E23" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -2480,13 +2523,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -2495,36 +2538,36 @@
         <v>0</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F3" s="8"/>
     </row>
@@ -2533,10 +2576,10 @@
       <c r="B4" s="7"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" s="8"/>
     </row>
@@ -2630,13 +2673,13 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
       <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -2645,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483F3911-7F30-6C46-9488-6A7BD8DB9C20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E7E1B0-EF4E-A547-BDE0-867499842772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="2" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1704,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1820,7 +1820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2109,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E7E1B0-EF4E-A547-BDE0-867499842772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903AD34-0B94-DA4E-9CDF-4635DFBBF249}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -841,6 +841,10 @@
   </si>
   <si>
     <t>CaseDeletePreview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseFriendPkLove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -951,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,13 +1064,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1517,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1624,7 +1631,7 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="84" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>161</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1642,7 +1649,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="105" customHeight="1">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="13" t="s">
         <v>50</v>
       </c>
@@ -1705,7 +1712,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1742,7 +1749,7 @@
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>168</v>
       </c>
       <c r="C2" s="23" t="s">
@@ -1781,13 +1788,13 @@
       <c r="B4" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="13" t="s">
         <v>131</v>
       </c>
       <c r="F4" s="8"/>
@@ -1799,13 +1806,13 @@
       <c r="B5" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="13" t="s">
         <v>133</v>
       </c>
       <c r="F5" s="8"/>
@@ -1820,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1981,10 +1988,10 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="87" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -1999,10 +2006,10 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="87" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="22" t="s">
         <v>29</v>
       </c>
@@ -2014,19 +2021,19 @@
       </c>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="87" customHeight="1">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:6" ht="57" customHeight="1">
+      <c r="A11" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>136</v>
+      <c r="B11" s="38"/>
+      <c r="C11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="8"/>
     </row>
@@ -2034,15 +2041,17 @@
       <c r="A12" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>141</v>
+      <c r="B12" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -2050,31 +2059,31 @@
       <c r="A13" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>142</v>
+      <c r="B13" s="38"/>
+      <c r="C13" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="57" customHeight="1">
+    <row r="14" spans="1:6" ht="87" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>16</v>
+      <c r="B14" s="38"/>
+      <c r="C14" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>142</v>
       </c>
       <c r="F14" s="8"/>
     </row>
@@ -2097,8 +2106,9 @@
       <c r="F15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:B14"/>
+  <mergeCells count="2">
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2109,7 +2119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2157,7 @@
       <c r="A2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -2165,7 +2175,7 @@
       <c r="A3" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="22" t="s">
         <v>107</v>
       </c>
@@ -2181,7 +2191,7 @@
       <c r="A4" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="22" t="s">
         <v>108</v>
       </c>
@@ -2197,7 +2207,7 @@
       <c r="A5" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="18" t="s">
         <v>110</v>
       </c>
@@ -2213,7 +2223,7 @@
       <c r="A6" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="18" t="s">
         <v>111</v>
       </c>
@@ -2229,7 +2239,7 @@
       <c r="A7" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="18" t="s">
         <v>118</v>
       </c>
@@ -2243,7 +2253,7 @@
       <c r="A8" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="18" t="s">
         <v>119</v>
       </c>
@@ -2257,7 +2267,7 @@
       <c r="A9" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="18"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -2267,7 +2277,7 @@
       <c r="A10" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="18"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2277,7 +2287,7 @@
       <c r="A11" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="18" t="s">
         <v>109</v>
       </c>
@@ -2293,7 +2303,7 @@
       <c r="A12" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="39" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2311,7 +2321,7 @@
       <c r="A13" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="22" t="s">
         <v>59</v>
       </c>
@@ -2327,7 +2337,7 @@
       <c r="A14" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="22" t="s">
         <v>57</v>
       </c>
@@ -2343,7 +2353,7 @@
       <c r="A15" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="22" t="s">
         <v>90</v>
       </c>
@@ -2359,7 +2369,7 @@
       <c r="A16" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="22" t="s">
         <v>91</v>
       </c>
@@ -2411,7 +2421,7 @@
       <c r="A19" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="39" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -2429,7 +2439,7 @@
       <c r="A20" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="22" t="s">
         <v>77</v>
       </c>
@@ -2445,7 +2455,7 @@
       <c r="A21" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="22" t="s">
         <v>78</v>
       </c>
@@ -2461,7 +2471,7 @@
       <c r="A22" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="39" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -2479,7 +2489,7 @@
       <c r="A23" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="22" t="s">
         <v>52</v>
       </c>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B903AD34-0B94-DA4E-9CDF-4635DFBBF249}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B830BACF-D353-F647-A240-695233D044A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="176">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -845,6 +845,19 @@
   </si>
   <si>
     <t>CaseFriendPkLove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启app后仍然展示团队模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开启团战模式
+2.重启app再次进入直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.仍然展示团战PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,6 +1079,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1631,7 +1647,7 @@
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="84" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>161</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1649,7 +1665,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="105" customHeight="1">
-      <c r="A7" s="37"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="13" t="s">
         <v>50</v>
       </c>
@@ -1825,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1991,7 +2007,7 @@
       <c r="A9" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="22" t="s">
@@ -2009,7 +2025,7 @@
       <c r="A10" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="22" t="s">
         <v>29</v>
       </c>
@@ -2025,7 +2041,7 @@
       <c r="A11" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="22" t="s">
         <v>30</v>
       </c>
@@ -2041,7 +2057,7 @@
       <c r="A12" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="39" t="s">
         <v>172</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -2059,7 +2075,7 @@
       <c r="A13" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="22" t="s">
         <v>138</v>
       </c>
@@ -2072,43 +2088,59 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="87" customHeight="1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="22" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="89" customHeight="1">
+    <row r="15" spans="1:6" ht="87" customHeight="1">
       <c r="A15" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="89" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D16" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E16" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2157,7 +2189,7 @@
       <c r="A2" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -2175,7 +2207,7 @@
       <c r="A3" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="22" t="s">
         <v>107</v>
       </c>
@@ -2191,7 +2223,7 @@
       <c r="A4" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="22" t="s">
         <v>108</v>
       </c>
@@ -2207,7 +2239,7 @@
       <c r="A5" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="18" t="s">
         <v>110</v>
       </c>
@@ -2223,7 +2255,7 @@
       <c r="A6" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="18" t="s">
         <v>111</v>
       </c>
@@ -2239,7 +2271,7 @@
       <c r="A7" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="18" t="s">
         <v>118</v>
       </c>
@@ -2253,7 +2285,7 @@
       <c r="A8" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="18" t="s">
         <v>119</v>
       </c>
@@ -2267,7 +2299,7 @@
       <c r="A9" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="18"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -2277,7 +2309,7 @@
       <c r="A10" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="18"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2287,7 +2319,7 @@
       <c r="A11" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="18" t="s">
         <v>109</v>
       </c>
@@ -2303,7 +2335,7 @@
       <c r="A12" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="40" t="s">
         <v>103</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -2321,7 +2353,7 @@
       <c r="A13" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="22" t="s">
         <v>59</v>
       </c>
@@ -2337,7 +2369,7 @@
       <c r="A14" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="22" t="s">
         <v>57</v>
       </c>
@@ -2353,7 +2385,7 @@
       <c r="A15" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="22" t="s">
         <v>90</v>
       </c>
@@ -2369,7 +2401,7 @@
       <c r="A16" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="22" t="s">
         <v>91</v>
       </c>
@@ -2421,7 +2453,7 @@
       <c r="A19" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="40" t="s">
         <v>85</v>
       </c>
       <c r="C19" s="22" t="s">
@@ -2439,7 +2471,7 @@
       <c r="A20" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="22" t="s">
         <v>77</v>
       </c>
@@ -2455,7 +2487,7 @@
       <c r="A21" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="22" t="s">
         <v>78</v>
       </c>
@@ -2471,7 +2503,7 @@
       <c r="A22" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="40" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="22" t="s">
@@ -2489,7 +2521,7 @@
       <c r="A23" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="22" t="s">
         <v>52</v>
       </c>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B830BACF-D353-F647-A240-695233D044A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{353A2B59-EA73-5C43-A52A-083DF3F02E01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1620" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="179">
   <si>
     <t>检查点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CaseEnterLiveRoomByPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页进入直播间</t>
     <rPh sb="0" eb="2">
       <t>shou'y</t>
@@ -597,18 +593,6 @@
     <t>1.获取直播间类型
 2.退出直播间正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.获取直播间类型
-3.退出直播间正常</t>
-  </si>
-  <si>
-    <t>1.获取直播间类型
-4.退出直播间正常</t>
-  </si>
-  <si>
-    <t>1.获取直播间类型
-5.退出直播间正常</t>
   </si>
   <si>
     <t>创建直播间</t>
@@ -858,6 +842,34 @@
   </si>
   <si>
     <t>1.仍然展示团战PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseEnterLiveBySearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseEnterLiveByLiveIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseEnterLiveByMyListen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseEnterLiveByVoiceFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseEnterLiveByTabbarPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.退出直播间后从肚脐眼进入与之前的直播间为同一直播间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.正常进入直播间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,7 +980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,70 +1038,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1540,7 +1555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754F94BE-B8AB-8E4D-81D3-76EBC395F6A5}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1575,91 +1590,91 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>120</v>
+      <c r="E3" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>87</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="74" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>154</v>
+      <c r="D5" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="84" customHeight="1">
       <c r="A6" s="38" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="8"/>
@@ -1669,20 +1684,20 @@
       <c r="B7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="25" t="s">
-        <v>162</v>
+      <c r="A8" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>9</v>
@@ -1727,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1873B295-C55E-334F-A722-C0802304DA2A}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1763,73 +1778,73 @@
     </row>
     <row r="2" spans="1:6" ht="87" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>126</v>
+      <c r="E2" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="138" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>166</v>
+      <c r="C3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="95" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>128</v>
+        <v>156</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="88" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>167</v>
       </c>
+      <c r="C5" s="34" t="s">
+        <v>163</v>
+      </c>
       <c r="D5" s="13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -1843,8 +1858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A43C51-C731-B144-81D3-9609088CA86C}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1858,7 +1873,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1878,262 +1893,262 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="95" customHeight="1">
-      <c r="A2" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1">
-      <c r="A3" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="57" customHeight="1">
-      <c r="A4" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="57" customHeight="1">
-      <c r="A5" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="57" customHeight="1">
-      <c r="A6" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="57" customHeight="1">
+      <c r="A7" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="57" customHeight="1">
+      <c r="A8" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="57" customHeight="1">
-      <c r="A7" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="57" customHeight="1">
-      <c r="A8" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>151</v>
-      </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="87" customHeight="1">
-      <c r="A9" s="35" t="s">
-        <v>163</v>
+      <c r="A9" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="87" customHeight="1">
-      <c r="A10" s="35" t="s">
-        <v>163</v>
+      <c r="A10" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="B10" s="39"/>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="57" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>163</v>
+      <c r="A11" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="B11" s="39"/>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="87" customHeight="1">
-      <c r="A12" s="33" t="s">
-        <v>163</v>
+      <c r="A12" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="87" customHeight="1">
+      <c r="A13" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="87" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="87" customHeight="1">
+      <c r="A15" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="87" customHeight="1">
-      <c r="A13" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="22" t="s">
+      <c r="E15" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="87" customHeight="1">
-      <c r="A14" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="87" customHeight="1">
-      <c r="A15" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="89" customHeight="1">
-      <c r="A16" s="33" t="s">
-        <v>163</v>
+      <c r="A16" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>156</v>
+      <c r="D16" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -2151,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F6774E-C37B-1A43-9198-46C0CA6F5BC7}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2166,140 +2181,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="46" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>114</v>
+      <c r="D2" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="47" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B3" s="40"/>
-      <c r="C3" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>113</v>
+      <c r="C3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="47" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>112</v>
+        <v>160</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="37" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="40"/>
+        <v>160</v>
+      </c>
+      <c r="B5" s="37"/>
       <c r="C5" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="38" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>122</v>
+        <v>160</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="38" customHeight="1">
       <c r="A7" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="40"/>
+        <v>160</v>
+      </c>
+      <c r="B7" s="37"/>
       <c r="C7" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="38" customHeight="1">
       <c r="A8" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>124</v>
+        <v>160</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
+        <v>177</v>
       </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="38" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="40"/>
+        <v>160</v>
+      </c>
+      <c r="B9" s="37"/>
       <c r="C9" s="18"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -2307,9 +2328,9 @@
     </row>
     <row r="10" spans="1:6" ht="38" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="40"/>
+        <v>160</v>
+      </c>
+      <c r="B10" s="37"/>
       <c r="C10" s="18"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2317,23 +2338,25 @@
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>160</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="57" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>103</v>
@@ -2351,76 +2374,76 @@
     </row>
     <row r="13" spans="1:6" ht="57" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B13" s="40"/>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="57" customHeight="1">
       <c r="A14" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" s="40"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="57" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B15" s="40"/>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>100</v>
       </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="57" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40"/>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="57" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="13" t="s">
@@ -2433,102 +2456,102 @@
     </row>
     <row r="18" spans="1:6" ht="94" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>89</v>
       </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="57" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="76" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B20" s="40"/>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>73</v>
       </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="85" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B21" s="40"/>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>75</v>
       </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="57" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="57" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B23" s="40"/>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="8"/>
@@ -2538,7 +2561,7 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/com/xmly/cases/直播UI测试.xlsx
+++ b/src/test/java/com/xmly/cases/直播UI测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roger/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/Documents/xmly/Uitest/src/test/java/com/xmly/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{353A2B59-EA73-5C43-A52A-083DF3F02E01}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A0CE2-2AEC-444F-AD1B-C4314A0ACF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{6F073003-78B9-704D-A12D-BA382756DF89}"/>
   </bookViews>
   <sheets>
     <sheet name="用例样式" sheetId="7" r:id="rId1"/>
@@ -2167,7 +2167,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2275,13 +2275,13 @@
       <c r="B6" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>178</v>
       </c>
       <c r="F6" s="8"/>
